--- a/xlsx/印度尼西亚_intext.xlsx
+++ b/xlsx/印度尼西亚_intext.xlsx
@@ -29,7 +29,7 @@
     <t>印度尼西亚国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_印度尼西亚</t>
+    <t>体育运动_体育运动_伊朗_印度尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A%E5%9B%BD%E5%BE%BD</t>
@@ -6464,7 +6464,7 @@
         <v>126</v>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
